--- a/data-raw/scantron-data/survey-folders/Youth PA (Pre)/115tcaps210621.xlsx
+++ b/data-raw/scantron-data/survey-folders/Youth PA (Pre)/115tcaps210621.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\MNN Data and Evaluation\FY21\Statewide eval\Data\Youth PA (Pre)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CA1D91-7E4A-4F8B-BAB7-36C99E8284E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="19140" windowHeight="7416"/>
+    <workbookView xWindow="4350" yWindow="1785" windowWidth="25545" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="115tcaps210621" sheetId="1" r:id="rId1"/>
@@ -373,7 +379,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -905,6 +911,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -952,7 +961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -985,9 +994,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1020,6 +1046,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1195,16 +1238,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1314,18 +1388,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
         <v>114</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>115</v>
-      </c>
-      <c r="D2" t="s">
-        <v>116</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -1415,18 +1489,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
         <v>114</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>115</v>
-      </c>
-      <c r="D3" t="s">
-        <v>116</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1525,18 +1599,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
         <v>114</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>115</v>
-      </c>
-      <c r="D4" t="s">
-        <v>116</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1635,18 +1709,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
         <v>114</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>115</v>
-      </c>
-      <c r="D5" t="s">
-        <v>116</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1745,18 +1819,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
       <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
         <v>114</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>115</v>
-      </c>
-      <c r="D6" t="s">
-        <v>116</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1855,18 +1929,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
       <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
         <v>114</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>115</v>
-      </c>
-      <c r="D7" t="s">
-        <v>116</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -1962,18 +2036,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
       <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>115</v>
-      </c>
-      <c r="D8" t="s">
-        <v>116</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -2072,18 +2146,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
       <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
         <v>114</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>115</v>
-      </c>
-      <c r="D9" t="s">
-        <v>116</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -2182,18 +2256,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
       <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
         <v>114</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>115</v>
-      </c>
-      <c r="D10" t="s">
-        <v>116</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -2292,18 +2366,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
       <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
         <v>114</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>115</v>
-      </c>
-      <c r="D11" t="s">
-        <v>116</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2402,18 +2476,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
       <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
         <v>114</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>115</v>
-      </c>
-      <c r="D12" t="s">
-        <v>116</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -2509,18 +2583,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
       <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
         <v>114</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>115</v>
-      </c>
-      <c r="D13" t="s">
-        <v>116</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -2619,18 +2693,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
       <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
         <v>114</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>115</v>
-      </c>
-      <c r="D14" t="s">
-        <v>116</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -2729,18 +2803,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
       <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
         <v>114</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>115</v>
-      </c>
-      <c r="D15" t="s">
-        <v>116</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -2836,18 +2910,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
       <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
         <v>114</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>116</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -2946,18 +3020,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
       <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
         <v>114</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>115</v>
-      </c>
-      <c r="D17" t="s">
-        <v>116</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -3056,18 +3130,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
       <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
         <v>114</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>115</v>
-      </c>
-      <c r="D18" t="s">
-        <v>116</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -3166,18 +3240,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
       <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
         <v>114</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>115</v>
-      </c>
-      <c r="D19" t="s">
-        <v>116</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -3276,18 +3350,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
       <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>115</v>
-      </c>
-      <c r="D20" t="s">
-        <v>116</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -3386,18 +3460,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
       <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
         <v>114</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>115</v>
-      </c>
-      <c r="D21" t="s">
-        <v>116</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -3496,18 +3570,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
       <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
         <v>114</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>115</v>
-      </c>
-      <c r="D22" t="s">
-        <v>116</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -3606,18 +3680,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>72</v>
       </c>
       <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
         <v>114</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>115</v>
-      </c>
-      <c r="D23" t="s">
-        <v>117</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -3716,18 +3790,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>74</v>
       </c>
       <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
         <v>114</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>115</v>
-      </c>
-      <c r="D24" t="s">
-        <v>117</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -3826,18 +3900,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>75</v>
       </c>
       <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
         <v>114</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>115</v>
-      </c>
-      <c r="D25" t="s">
-        <v>117</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -3936,18 +4010,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
       <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
         <v>114</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>115</v>
-      </c>
-      <c r="D26" t="s">
-        <v>117</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -4037,18 +4111,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
       <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>115</v>
-      </c>
-      <c r="D27" t="s">
-        <v>117</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -4147,18 +4221,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
       <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
         <v>114</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>115</v>
-      </c>
-      <c r="D28" t="s">
-        <v>117</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -4257,18 +4331,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>79</v>
       </c>
       <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
         <v>114</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>115</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -4364,18 +4438,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
       <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
         <v>114</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>115</v>
-      </c>
-      <c r="D30" t="s">
-        <v>117</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -4474,18 +4548,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>82</v>
       </c>
       <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
         <v>114</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>115</v>
-      </c>
-      <c r="D31" t="s">
-        <v>117</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -4584,18 +4658,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>83</v>
       </c>
       <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
         <v>114</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>115</v>
-      </c>
-      <c r="D32" t="s">
-        <v>117</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -4694,18 +4768,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>84</v>
       </c>
       <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
         <v>114</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>115</v>
-      </c>
-      <c r="D33" t="s">
-        <v>117</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -4804,18 +4878,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>85</v>
       </c>
       <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
         <v>114</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>115</v>
-      </c>
-      <c r="D34" t="s">
-        <v>117</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -4914,18 +4988,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>86</v>
       </c>
       <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
         <v>114</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>115</v>
-      </c>
-      <c r="D35" t="s">
-        <v>117</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -5024,18 +5098,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
       <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s">
         <v>114</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>115</v>
-      </c>
-      <c r="D36" t="s">
-        <v>117</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -5134,18 +5208,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>89</v>
       </c>
       <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
         <v>114</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>115</v>
-      </c>
-      <c r="D37" t="s">
-        <v>117</v>
       </c>
       <c r="E37">
         <v>5</v>
@@ -5244,18 +5318,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>90</v>
       </c>
       <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" t="s">
         <v>114</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>115</v>
-      </c>
-      <c r="D38" t="s">
-        <v>117</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -5354,18 +5428,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
       <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
         <v>114</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>115</v>
-      </c>
-      <c r="D39" t="s">
-        <v>117</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -5464,18 +5538,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>92</v>
       </c>
       <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
         <v>114</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>115</v>
-      </c>
-      <c r="D40" t="s">
-        <v>117</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -5574,18 +5648,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>93</v>
       </c>
       <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
         <v>114</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>115</v>
-      </c>
-      <c r="D41" t="s">
-        <v>117</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -5681,18 +5755,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
       <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
         <v>114</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>115</v>
-      </c>
-      <c r="D42" t="s">
-        <v>117</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -5791,18 +5865,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>95</v>
       </c>
       <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
         <v>114</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>115</v>
-      </c>
-      <c r="D43" t="s">
-        <v>117</v>
       </c>
       <c r="E43">
         <v>5</v>
@@ -5901,18 +5975,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>96</v>
       </c>
       <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
         <v>114</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>115</v>
-      </c>
-      <c r="D44" t="s">
-        <v>117</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -6011,18 +6085,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>98</v>
       </c>
       <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
         <v>114</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>115</v>
-      </c>
-      <c r="D45" t="s">
-        <v>117</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -6121,18 +6195,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>99</v>
       </c>
       <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
         <v>114</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>115</v>
-      </c>
-      <c r="D46" t="s">
-        <v>117</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -6228,18 +6302,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>100</v>
       </c>
       <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
         <v>114</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>115</v>
-      </c>
-      <c r="D47" t="s">
-        <v>117</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -6338,18 +6412,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>101</v>
       </c>
       <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
         <v>114</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>115</v>
-      </c>
-      <c r="D48" t="s">
-        <v>117</v>
       </c>
       <c r="E48">
         <v>4</v>
@@ -6448,18 +6522,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>102</v>
       </c>
       <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
         <v>114</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>115</v>
-      </c>
-      <c r="D49" t="s">
-        <v>117</v>
       </c>
       <c r="E49">
         <v>4</v>
@@ -6558,18 +6632,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>103</v>
       </c>
       <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" t="s">
         <v>114</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>115</v>
-      </c>
-      <c r="D50" t="s">
-        <v>117</v>
       </c>
       <c r="E50">
         <v>5</v>
@@ -6668,18 +6742,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>104</v>
       </c>
       <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
         <v>114</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>115</v>
-      </c>
-      <c r="D51" t="s">
-        <v>117</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -6778,18 +6852,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>105</v>
       </c>
       <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
         <v>114</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>115</v>
-      </c>
-      <c r="D52" t="s">
-        <v>117</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -6888,18 +6962,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>107</v>
       </c>
       <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
         <v>114</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>115</v>
-      </c>
-      <c r="D53" t="s">
-        <v>117</v>
       </c>
       <c r="E53">
         <v>5</v>
@@ -6998,18 +7072,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>109</v>
       </c>
       <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
         <v>114</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>115</v>
-      </c>
-      <c r="D54" t="s">
-        <v>117</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -7108,18 +7182,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>110</v>
       </c>
       <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
         <v>114</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>115</v>
-      </c>
-      <c r="D55" t="s">
-        <v>117</v>
       </c>
       <c r="E55">
         <v>4</v>
@@ -7218,18 +7292,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>111</v>
       </c>
       <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
         <v>114</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>115</v>
-      </c>
-      <c r="D56" t="s">
-        <v>117</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -7328,18 +7402,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>112</v>
       </c>
       <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
         <v>114</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>115</v>
-      </c>
-      <c r="D57" t="s">
-        <v>117</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -7438,18 +7512,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>113</v>
       </c>
       <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="s">
         <v>114</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>115</v>
-      </c>
-      <c r="D58" t="s">
-        <v>117</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -7550,5 +7624,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>